--- a/src/assets/testfiles/processingtime.xlsx
+++ b/src/assets/testfiles/processingtime.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19187" windowHeight="7580"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,9 +23,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>j3</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>j5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +53,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,66 +370,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>7</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>